--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Procr.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H2">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I2">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J2">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.064502333333333</v>
+        <v>7.492418666666667</v>
       </c>
       <c r="N2">
-        <v>21.193507</v>
+        <v>22.477256</v>
       </c>
       <c r="O2">
-        <v>0.2476561179404803</v>
+        <v>0.5201700362954303</v>
       </c>
       <c r="P2">
-        <v>0.3052764709046203</v>
+        <v>0.5280713340433094</v>
       </c>
       <c r="Q2">
-        <v>18.59290356238044</v>
+        <v>38.13821418875911</v>
       </c>
       <c r="R2">
-        <v>167.336132061424</v>
+        <v>343.243927698832</v>
       </c>
       <c r="S2">
-        <v>0.00264056239327175</v>
+        <v>0.007898920659311975</v>
       </c>
       <c r="T2">
-        <v>0.003272451518110505</v>
+        <v>0.008054100878993831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H3">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I3">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J3">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.150354</v>
       </c>
       <c r="O3">
-        <v>0.1302971417284599</v>
+        <v>0.2580421758281748</v>
       </c>
       <c r="P3">
-        <v>0.1606124327822298</v>
+        <v>0.2619617942615037</v>
       </c>
       <c r="Q3">
-        <v>9.78212131708089</v>
+        <v>18.91932845950978</v>
       </c>
       <c r="R3">
-        <v>88.039091853728</v>
+        <v>170.273956135588</v>
       </c>
       <c r="S3">
-        <v>0.001389255937871313</v>
+        <v>0.003918439224487274</v>
       </c>
       <c r="T3">
-        <v>0.001721706222324108</v>
+        <v>0.003995419901454713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.090240666666667</v>
+      </c>
+      <c r="H4">
+        <v>15.270722</v>
+      </c>
+      <c r="I4">
+        <v>0.01518526656315472</v>
+      </c>
+      <c r="J4">
+        <v>0.01525191836740238</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>2.631877333333333</v>
-      </c>
-      <c r="H4">
-        <v>7.895632</v>
-      </c>
-      <c r="I4">
-        <v>0.01066221345642817</v>
-      </c>
-      <c r="J4">
-        <v>0.01071963230056122</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>1.315098</v>
+        <v>1.208492333333333</v>
       </c>
       <c r="N4">
-        <v>3.945294</v>
+        <v>3.625477</v>
       </c>
       <c r="O4">
-        <v>0.04610261983417229</v>
+        <v>0.08390101098987564</v>
       </c>
       <c r="P4">
-        <v>0.05682898205573871</v>
+        <v>0.08517545362002084</v>
       </c>
       <c r="Q4">
-        <v>3.461176617311999</v>
+        <v>6.151516820488223</v>
       </c>
       <c r="R4">
-        <v>31.150589555808</v>
+        <v>55.363651384394</v>
       </c>
       <c r="S4">
-        <v>0.0004915559735725038</v>
+        <v>0.001274059216799435</v>
       </c>
       <c r="T4">
-        <v>0.0006091857916527106</v>
+        <v>0.001299089065519026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H5">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I5">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J5">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.1523735</v>
+        <v>0.6465525</v>
       </c>
       <c r="N5">
-        <v>32.304747</v>
+        <v>1.293105</v>
       </c>
       <c r="O5">
-        <v>0.5662442912163648</v>
+        <v>0.04488767277356737</v>
       </c>
       <c r="P5">
-        <v>0.4653254960411516</v>
+        <v>0.03037967278604086</v>
       </c>
       <c r="Q5">
-        <v>42.511065694184</v>
+        <v>3.291107828635</v>
       </c>
       <c r="R5">
-        <v>255.066394165104</v>
+        <v>19.74664697181</v>
       </c>
       <c r="S5">
-        <v>0.006037417501432754</v>
+        <v>0.0006816312764662831</v>
       </c>
       <c r="T5">
-        <v>0.0049881182176374</v>
+        <v>0.0004633482893610908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H6">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I6">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J6">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.276692</v>
+        <v>1.339539333333333</v>
       </c>
       <c r="N6">
-        <v>0.830076</v>
+        <v>4.018618</v>
       </c>
       <c r="O6">
-        <v>0.009699829280522668</v>
+        <v>0.09299910411295177</v>
       </c>
       <c r="P6">
-        <v>0.01195661821625952</v>
+        <v>0.09441174528912497</v>
       </c>
       <c r="Q6">
-        <v>0.7282194031146666</v>
+        <v>6.81857758913289</v>
       </c>
       <c r="R6">
-        <v>6.553974628032</v>
+        <v>61.367198302196</v>
       </c>
       <c r="S6">
-        <v>0.0001034216502798447</v>
+        <v>0.001412216186089751</v>
       </c>
       <c r="T6">
-        <v>0.0001281705508364942</v>
+        <v>0.00143996023207372</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.060866</v>
       </c>
       <c r="I7">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J7">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.064502333333333</v>
+        <v>7.492418666666667</v>
       </c>
       <c r="N7">
-        <v>21.193507</v>
+        <v>22.477256</v>
       </c>
       <c r="O7">
-        <v>0.2476561179404803</v>
+        <v>0.5201700362954303</v>
       </c>
       <c r="P7">
-        <v>0.3052764709046203</v>
+        <v>0.5280713340433094</v>
       </c>
       <c r="Q7">
-        <v>7.207831666340222</v>
+        <v>7.644429851521777</v>
       </c>
       <c r="R7">
-        <v>64.87048499706199</v>
+        <v>68.799868663696</v>
       </c>
       <c r="S7">
-        <v>0.001023655566830385</v>
+        <v>0.001583260940955222</v>
       </c>
       <c r="T7">
-        <v>0.001268617330244473</v>
+        <v>0.001614365289413449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.060866</v>
       </c>
       <c r="I8">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J8">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>11.150354</v>
       </c>
       <c r="O8">
-        <v>0.1302971417284599</v>
+        <v>0.2580421758281748</v>
       </c>
       <c r="P8">
-        <v>0.1606124327822298</v>
+        <v>0.2619617942615037</v>
       </c>
       <c r="Q8">
         <v>3.792193271840445</v>
@@ -948,10 +948,10 @@
         <v>34.129739446564</v>
       </c>
       <c r="S8">
-        <v>0.0005385669273249329</v>
+        <v>0.0007854125951149831</v>
       </c>
       <c r="T8">
-        <v>0.0006674465119322053</v>
+        <v>0.0008008426145198688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>3.060866</v>
       </c>
       <c r="I9">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J9">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.315098</v>
+        <v>1.208492333333333</v>
       </c>
       <c r="N9">
-        <v>3.945294</v>
+        <v>3.625477</v>
       </c>
       <c r="O9">
-        <v>0.04610261983417229</v>
+        <v>0.08390101098987564</v>
       </c>
       <c r="P9">
-        <v>0.05682898205573871</v>
+        <v>0.08517545362002084</v>
       </c>
       <c r="Q9">
-        <v>1.341779584956</v>
+        <v>1.233011031453555</v>
       </c>
       <c r="R9">
-        <v>12.076016264604</v>
+        <v>11.097099283082</v>
       </c>
       <c r="S9">
-        <v>0.0001905594088737894</v>
+        <v>0.0002553726365189556</v>
       </c>
       <c r="T9">
-        <v>0.0002361604590174498</v>
+        <v>0.0002603896234650174</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.060866</v>
       </c>
       <c r="I10">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J10">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.1523735</v>
+        <v>0.6465525</v>
       </c>
       <c r="N10">
-        <v>32.304747</v>
+        <v>1.293105</v>
       </c>
       <c r="O10">
-        <v>0.5662442912163648</v>
+        <v>0.04488767277356737</v>
       </c>
       <c r="P10">
-        <v>0.4653254960411516</v>
+        <v>0.03037967278604086</v>
       </c>
       <c r="Q10">
-        <v>16.480083621817</v>
+        <v>0.6596701881549999</v>
       </c>
       <c r="R10">
-        <v>98.880501730902</v>
+        <v>3.95802112893</v>
       </c>
       <c r="S10">
-        <v>0.002340499906523058</v>
+        <v>0.0001366262838569287</v>
       </c>
       <c r="T10">
-        <v>0.001933722526119114</v>
+        <v>9.28736064387476E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>3.060866</v>
       </c>
       <c r="I11">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J11">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.276692</v>
+        <v>1.339539333333333</v>
       </c>
       <c r="N11">
-        <v>0.830076</v>
+        <v>4.018618</v>
       </c>
       <c r="O11">
-        <v>0.009699829280522668</v>
+        <v>0.09299910411295177</v>
       </c>
       <c r="P11">
-        <v>0.01195661821625952</v>
+        <v>0.09441174528912497</v>
       </c>
       <c r="Q11">
-        <v>0.2823057117573333</v>
+        <v>1.366716800354222</v>
       </c>
       <c r="R11">
-        <v>2.540751405816</v>
+        <v>12.300451203188</v>
       </c>
       <c r="S11">
-        <v>4.009303029896369E-05</v>
+        <v>0.0002830648419015022</v>
       </c>
       <c r="T11">
-        <v>4.968733107833503E-05</v>
+        <v>0.0002886258629884402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H12">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I12">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J12">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.064502333333333</v>
+        <v>7.492418666666667</v>
       </c>
       <c r="N12">
-        <v>21.193507</v>
+        <v>22.477256</v>
       </c>
       <c r="O12">
-        <v>0.2476561179404803</v>
+        <v>0.5201700362954303</v>
       </c>
       <c r="P12">
-        <v>0.3052764709046203</v>
+        <v>0.5280713340433094</v>
       </c>
       <c r="Q12">
-        <v>779.6559268274299</v>
+        <v>518.0124251738115</v>
       </c>
       <c r="R12">
-        <v>7016.903341446869</v>
+        <v>4662.111826564304</v>
       </c>
       <c r="S12">
-        <v>0.1107266604790782</v>
+        <v>0.1072871169775883</v>
       </c>
       <c r="T12">
-        <v>0.1372236570146348</v>
+        <v>0.1093948528442587</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H13">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I13">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J13">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.150354</v>
       </c>
       <c r="O13">
-        <v>0.1302971417284599</v>
+        <v>0.2580421758281748</v>
       </c>
       <c r="P13">
-        <v>0.1606124327822298</v>
+        <v>0.2619617942615037</v>
       </c>
       <c r="Q13">
-        <v>410.1935362714599</v>
+        <v>256.9718437644929</v>
       </c>
       <c r="R13">
-        <v>3691.74182644314</v>
+        <v>2312.746593880436</v>
       </c>
       <c r="S13">
-        <v>0.05825564695732196</v>
+        <v>0.05322221422132312</v>
       </c>
       <c r="T13">
-        <v>0.07219627940235473</v>
+        <v>0.0542678045305615</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H14">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I14">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J14">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.315098</v>
+        <v>1.208492333333333</v>
       </c>
       <c r="N14">
-        <v>3.945294</v>
+        <v>3.625477</v>
       </c>
       <c r="O14">
-        <v>0.04610261983417229</v>
+        <v>0.08390101098987564</v>
       </c>
       <c r="P14">
-        <v>0.05682898205573871</v>
+        <v>0.08517545362002084</v>
       </c>
       <c r="Q14">
-        <v>145.13746357206</v>
+        <v>83.5529983367131</v>
       </c>
       <c r="R14">
-        <v>1306.23717214854</v>
+        <v>751.9769850304179</v>
       </c>
       <c r="S14">
-        <v>0.02061240875463152</v>
+        <v>0.01730491368690894</v>
       </c>
       <c r="T14">
-        <v>0.02554497802925662</v>
+        <v>0.01764488169308764</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H15">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I15">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J15">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.1523735</v>
+        <v>0.6465525</v>
       </c>
       <c r="N15">
-        <v>32.304747</v>
+        <v>1.293105</v>
       </c>
       <c r="O15">
-        <v>0.5662442912163648</v>
+        <v>0.04488767277356737</v>
       </c>
       <c r="P15">
-        <v>0.4653254960411516</v>
+        <v>0.03037967278604086</v>
       </c>
       <c r="Q15">
-        <v>1782.615835822545</v>
+        <v>44.701483383095</v>
       </c>
       <c r="R15">
-        <v>10695.69501493527</v>
+        <v>268.20890029857</v>
       </c>
       <c r="S15">
-        <v>0.2531669312397085</v>
+        <v>0.009258259153117114</v>
       </c>
       <c r="T15">
-        <v>0.2091666812044156</v>
+        <v>0.006293429731243666</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H16">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I16">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J16">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.276692</v>
+        <v>1.339539333333333</v>
       </c>
       <c r="N16">
-        <v>0.830076</v>
+        <v>4.018618</v>
       </c>
       <c r="O16">
-        <v>0.009699829280522668</v>
+        <v>0.09299910411295177</v>
       </c>
       <c r="P16">
-        <v>0.01195661821625952</v>
+        <v>0.09441174528912497</v>
       </c>
       <c r="Q16">
-        <v>30.53641254923999</v>
+        <v>92.61335351731245</v>
       </c>
       <c r="R16">
-        <v>274.82771294316</v>
+        <v>833.5201816558119</v>
       </c>
       <c r="S16">
-        <v>0.004336778402169651</v>
+        <v>0.01918143119668353</v>
       </c>
       <c r="T16">
-        <v>0.005374573652207725</v>
+        <v>0.01955826479652539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H17">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I17">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J17">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.064502333333333</v>
+        <v>7.492418666666667</v>
       </c>
       <c r="N17">
-        <v>21.193507</v>
+        <v>22.477256</v>
       </c>
       <c r="O17">
-        <v>0.2476561179404803</v>
+        <v>0.5201700362954303</v>
       </c>
       <c r="P17">
-        <v>0.3052764709046203</v>
+        <v>0.5280713340433094</v>
       </c>
       <c r="Q17">
-        <v>28.02177590755783</v>
+        <v>32.92658017072267</v>
       </c>
       <c r="R17">
-        <v>168.130655445347</v>
+        <v>197.559481024336</v>
       </c>
       <c r="S17">
-        <v>0.003979649945794279</v>
+        <v>0.006819523406727071</v>
       </c>
       <c r="T17">
-        <v>0.003287989341423755</v>
+        <v>0.004635665371967726</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H18">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I18">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J18">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>11.150354</v>
       </c>
       <c r="O18">
-        <v>0.1302971417284599</v>
+        <v>0.2580421758281748</v>
       </c>
       <c r="P18">
-        <v>0.1606124327822298</v>
+        <v>0.2619617942615037</v>
       </c>
       <c r="Q18">
-        <v>14.74285124580567</v>
+        <v>16.33397888572067</v>
       </c>
       <c r="R18">
-        <v>88.457107474834</v>
+        <v>98.003873314324</v>
       </c>
       <c r="S18">
-        <v>0.002093778329923737</v>
+        <v>0.003382979670485261</v>
       </c>
       <c r="T18">
-        <v>0.001729881001058566</v>
+        <v>0.002299627228652012</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H19">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I19">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J19">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.315098</v>
+        <v>1.208492333333333</v>
       </c>
       <c r="N19">
-        <v>3.945294</v>
+        <v>3.625477</v>
       </c>
       <c r="O19">
-        <v>0.04610261983417229</v>
+        <v>0.08390101098987564</v>
       </c>
       <c r="P19">
-        <v>0.05682898205573871</v>
+        <v>0.08517545362002084</v>
       </c>
       <c r="Q19">
-        <v>5.216415780429</v>
+        <v>5.310904458160333</v>
       </c>
       <c r="R19">
-        <v>31.298494682574</v>
+        <v>31.865426748962</v>
       </c>
       <c r="S19">
-        <v>0.000740834872361733</v>
+        <v>0.001099957453082825</v>
       </c>
       <c r="T19">
-        <v>0.0006120782473982758</v>
+        <v>0.0007477112947312356</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H20">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I20">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J20">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.1523735</v>
+        <v>0.6465525</v>
       </c>
       <c r="N20">
-        <v>32.304747</v>
+        <v>1.293105</v>
       </c>
       <c r="O20">
-        <v>0.5662442912163648</v>
+        <v>0.04488767277356737</v>
       </c>
       <c r="P20">
-        <v>0.4653254960411516</v>
+        <v>0.03037967278604086</v>
       </c>
       <c r="Q20">
-        <v>64.06936670634676</v>
+        <v>2.8413738837825</v>
       </c>
       <c r="R20">
-        <v>256.277466825387</v>
+        <v>11.36549553513</v>
       </c>
       <c r="S20">
-        <v>0.009099125358118966</v>
+        <v>0.0005884855216439104</v>
       </c>
       <c r="T20">
-        <v>0.005011802143618373</v>
+        <v>0.000266687449340717</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H21">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I21">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J21">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.276692</v>
+        <v>1.339539333333333</v>
       </c>
       <c r="N21">
-        <v>0.830076</v>
+        <v>4.018618</v>
       </c>
       <c r="O21">
-        <v>0.009699829280522668</v>
+        <v>0.09299910411295177</v>
       </c>
       <c r="P21">
-        <v>0.01195661821625952</v>
+        <v>0.09441174528912497</v>
       </c>
       <c r="Q21">
-        <v>1.097515557866</v>
+        <v>5.886810549851334</v>
       </c>
       <c r="R21">
-        <v>6.585093347196</v>
+        <v>35.320863299108</v>
       </c>
       <c r="S21">
-        <v>0.0001558690550084576</v>
+        <v>0.001219235102082511</v>
       </c>
       <c r="T21">
-        <v>0.00012877911336579</v>
+        <v>0.0008287919266375842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H22">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I22">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J22">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.064502333333333</v>
+        <v>7.492418666666667</v>
       </c>
       <c r="N22">
-        <v>21.193507</v>
+        <v>22.477256</v>
       </c>
       <c r="O22">
-        <v>0.2476561179404803</v>
+        <v>0.5201700362954303</v>
       </c>
       <c r="P22">
-        <v>0.3052764709046203</v>
+        <v>0.5280713340433094</v>
       </c>
       <c r="Q22">
-        <v>910.3342927006665</v>
+        <v>1914.805825628172</v>
       </c>
       <c r="R22">
-        <v>8193.008634305999</v>
+        <v>17233.25243065355</v>
       </c>
       <c r="S22">
-        <v>0.1292855895555057</v>
+        <v>0.3965812143108478</v>
       </c>
       <c r="T22">
-        <v>0.1602237557002067</v>
+        <v>0.4043723496586757</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H23">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I23">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J23">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>11.150354</v>
       </c>
       <c r="O23">
-        <v>0.1302971417284599</v>
+        <v>0.2580421758281748</v>
       </c>
       <c r="P23">
-        <v>0.1606124327822298</v>
+        <v>0.2619617942615037</v>
       </c>
       <c r="Q23">
-        <v>478.9461990387928</v>
+        <v>949.8829749065632</v>
       </c>
       <c r="R23">
-        <v>4310.515791349135</v>
+        <v>8548.946774159067</v>
       </c>
       <c r="S23">
-        <v>0.06801989357601795</v>
+        <v>0.1967331301167642</v>
       </c>
       <c r="T23">
-        <v>0.08429711964456015</v>
+        <v>0.2005980999863156</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H24">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I24">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J24">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.315098</v>
+        <v>1.208492333333333</v>
       </c>
       <c r="N24">
-        <v>3.945294</v>
+        <v>3.625477</v>
       </c>
       <c r="O24">
-        <v>0.04610261983417229</v>
+        <v>0.08390101098987564</v>
       </c>
       <c r="P24">
-        <v>0.05682898205573871</v>
+        <v>0.08517545362002084</v>
       </c>
       <c r="Q24">
-        <v>169.463997769986</v>
+        <v>308.8492865980149</v>
       </c>
       <c r="R24">
-        <v>1525.175979929874</v>
+        <v>2779.643579382134</v>
       </c>
       <c r="S24">
-        <v>0.02406726082473275</v>
+        <v>0.06396670799656549</v>
       </c>
       <c r="T24">
-        <v>0.02982657952841365</v>
+        <v>0.06522338194321792</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H25">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I25">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J25">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.1523735</v>
+        <v>0.6465525</v>
       </c>
       <c r="N25">
-        <v>32.304747</v>
+        <v>1.293105</v>
       </c>
       <c r="O25">
-        <v>0.5662442912163648</v>
+        <v>0.04488767277356737</v>
       </c>
       <c r="P25">
-        <v>0.4653254960411516</v>
+        <v>0.03037967278604086</v>
       </c>
       <c r="Q25">
-        <v>2081.40061560734</v>
+        <v>165.236694404485</v>
       </c>
       <c r="R25">
-        <v>12488.40369364404</v>
+        <v>991.4201664269099</v>
       </c>
       <c r="S25">
-        <v>0.2956003172105816</v>
+        <v>0.03422267053848314</v>
       </c>
       <c r="T25">
-        <v>0.244225171949361</v>
+        <v>0.02326333370965664</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H26">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I26">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J26">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.276692</v>
+        <v>1.339539333333333</v>
       </c>
       <c r="N26">
-        <v>0.830076</v>
+        <v>4.018618</v>
       </c>
       <c r="O26">
-        <v>0.009699829280522668</v>
+        <v>0.09299910411295177</v>
       </c>
       <c r="P26">
-        <v>0.01195661821625952</v>
+        <v>0.09441174528912497</v>
       </c>
       <c r="Q26">
-        <v>35.654629899044</v>
+        <v>342.3404154570396</v>
       </c>
       <c r="R26">
-        <v>320.8916690913961</v>
+        <v>3081.063739113356</v>
       </c>
       <c r="S26">
-        <v>0.005063667142765751</v>
+        <v>0.07090315678619448</v>
       </c>
       <c r="T26">
-        <v>0.006275407568771172</v>
+        <v>0.07229610247089983</v>
       </c>
     </row>
   </sheetData>
